--- a/Customer/Cust 2025/Cargo FRD 2025.xlsx
+++ b/Customer/Cust 2025/Cargo FRD 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Customer\Cust 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ED2DA5-0581-453A-8DC8-9071233E0B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A46D190-E07A-4443-AA71-53742C7D2A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E000C531-AA46-4CF4-8BD7-2185A135A010}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Hijau barang terkirim, Lunas, beres</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>38</t>
+  </si>
+  <si>
+    <t>S0085906</t>
+  </si>
+  <si>
+    <t>0009771 0663-2939593</t>
+  </si>
+  <si>
+    <t>1-50</t>
+  </si>
+  <si>
+    <t>软膏unguent</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
@@ -138,7 +153,7 @@
     <numFmt numFmtId="168" formatCode="0.000_ "/>
     <numFmt numFmtId="169" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +225,12 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -299,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -382,47 +403,56 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -740,11 +770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03568550-BD00-482C-9F46-E2F5DB6F38F1}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -824,11 +854,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -840,10 +870,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
@@ -860,84 +890,159 @@
       <c r="P3" s="25"/>
     </row>
     <row r="5" spans="1:16" ht="21">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="30">
         <v>45714</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="28">
         <f>960*38</f>
         <v>36480</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="28">
         <v>128</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="32">
         <f>K5*L5*M5/1000000*38</f>
         <v>2.4259199999999996</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="28">
         <v>57</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="28">
         <v>35</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="28">
         <v>32</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="31"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" ht="22.5">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39">
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35">
         <f>SUM(I5:I5)</f>
         <v>128</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="36">
         <f>SUM(J5:J5)</f>
         <v>2.4259199999999996</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+    </row>
+    <row r="7" spans="1:16" ht="21">
+      <c r="B7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="30">
+        <v>45721</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="28">
+        <f>960*50</f>
+        <v>48000</v>
+      </c>
+      <c r="I7" s="28">
+        <v>600</v>
+      </c>
+      <c r="J7" s="43">
+        <f>K7*L7*M7/1000000*50</f>
+        <v>3.17625</v>
+      </c>
+      <c r="K7" s="28">
+        <v>55</v>
+      </c>
+      <c r="L7" s="28">
+        <v>35</v>
+      </c>
+      <c r="M7" s="28">
+        <v>33</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="1:16" ht="22.5">
+      <c r="B8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35">
+        <f>SUM(I7:I7)</f>
+        <v>600</v>
+      </c>
+      <c r="J8" s="44">
+        <f>SUM(J7:J7)</f>
+        <v>3.17625</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1029,11 +1134,11 @@
       <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
       <c r="N2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1045,10 +1150,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="33.75">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
